--- a/NformTester/NformTester/keywordscripts/TST575_ExecuteTrapAlarmForward.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST575_ExecuteTrapAlarmForward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3641,9 +3641,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
@@ -3654,9 +3651,6 @@
 2) Wireshark application must be running on the machine on which traps are forwarded. </t>
   </si>
   <si>
-    <t>10.146.84.10</t>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3689,6 +3683,12 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4616,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4708,7 +4708,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4749,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4780,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4843,16 +4843,16 @@
         <v>797</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>798</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>799</v>
@@ -4898,7 +4898,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
@@ -4919,7 +4919,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -4948,7 +4948,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -4977,7 +4977,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>306</v>
@@ -4989,10 +4989,10 @@
         <v>7</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J12" s="5" t="b">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>306</v>
@@ -5041,7 +5041,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>310</v>
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5072,7 +5072,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>310</v>
@@ -5084,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5103,7 +5103,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>310</v>
@@ -5487,7 +5487,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -28233,12 +28233,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST575_ExecuteTrapAlarmForward.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST575_ExecuteTrapAlarmForward.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7308" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="815">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3633,22 +3633,10 @@
     <t>"SNMP"</t>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
     <t>;Clear operation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Prerequisites:1) SNMP devices should present in the Devices.
-2) Wireshark application must be running on the machine on which traps are forwarded. </t>
   </si>
   <si>
     <t>T</t>
@@ -3689,6 +3677,10 @@
   </si>
   <si>
     <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Prerequisites:1) SNMP devices should present in the Devices.2) Wireshark application must be running on the machine on which traps are forwarded. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3840,7 +3832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3879,9 +3871,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4614,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4708,7 +4697,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4749,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4780,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4799,7 +4788,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41075</v>
+        <v>41449</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4843,16 +4832,16 @@
         <v>797</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>798</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>799</v>
@@ -4898,7 +4887,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
@@ -4919,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -4948,7 +4937,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -4977,7 +4966,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>306</v>
@@ -4989,10 +4978,10 @@
         <v>7</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="J12" s="5" t="b">
         <v>0</v>
@@ -5012,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>306</v>
@@ -5041,7 +5030,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>310</v>
@@ -5053,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5072,7 +5061,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>310</v>
@@ -5084,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5103,7 +5092,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>310</v>
@@ -5241,21 +5230,21 @@
       <c r="N20" s="7"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="15">
       <c r="A21" s="3" t="s">
         <v>787</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5265,1078 +5254,47 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="C22" s="5">
-        <v>21</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="C23" s="5">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="7"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="C24" s="5">
-        <v>23</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="7"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="C25" s="5">
-        <v>24</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="C26" s="5">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="7"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="C27" s="5">
-        <v>26</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="7"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="C28" s="5">
-        <v>27</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="7"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="C29" s="5">
-        <v>28</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="7"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="C30" s="5">
-        <v>29</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="C31" s="5">
-        <v>30</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="7"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="C32" s="5">
-        <v>31</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:15">
-      <c r="C33" s="5">
-        <v>32</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="7"/>
+    <row r="33" spans="15:15">
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="3:15" ht="15">
-      <c r="C34" s="5">
-        <v>33</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="7"/>
+    <row r="34" spans="15:15">
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="3:15">
-      <c r="C35" s="5">
-        <v>34</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="3:15">
-      <c r="C36" s="5">
-        <v>35</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="3:15">
-      <c r="C37" s="5">
-        <v>36</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="3:15">
-      <c r="C38" s="5">
-        <v>37</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="3:15">
-      <c r="C39" s="5">
-        <v>38</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="3:15">
-      <c r="C40" s="5">
-        <v>39</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="5">
-        <v>1</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="3:15">
-      <c r="C41" s="5">
-        <v>40</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="3:15">
-      <c r="C42" s="5">
-        <v>41</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="3:15">
-      <c r="C43" s="5">
-        <v>42</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="3:15">
-      <c r="C44" s="5">
-        <v>43</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="3:15">
-      <c r="C45" s="5">
-        <v>44</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="3:15">
-      <c r="C46" s="5">
-        <v>45</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="3:15">
-      <c r="C47" s="5">
-        <v>46</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="3:15">
-      <c r="C48" s="5">
-        <v>47</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="3:15">
-      <c r="C49" s="5">
-        <v>48</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="3:15">
-      <c r="C50" s="5">
-        <v>49</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="3:15">
-      <c r="C51" s="5">
-        <v>50</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="3:15">
-      <c r="C52" s="5">
-        <v>51</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="3:15">
-      <c r="C53" s="5">
-        <v>52</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="3:15">
-      <c r="C54" s="5">
-        <v>53</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="3:15">
-      <c r="C55" s="5">
-        <v>54</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="3:15">
-      <c r="C56" s="5">
-        <v>55</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="3:15">
-      <c r="C57" s="5">
-        <v>56</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="3:15">
-      <c r="C58" s="5">
-        <v>57</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="3:15">
-      <c r="C59" s="5">
-        <v>58</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="3:15">
-      <c r="C60" s="5">
-        <v>59</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="3:15">
-      <c r="C61" s="5">
-        <v>60</v>
-      </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="3:15">
-      <c r="C62" s="5">
-        <v>61</v>
-      </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="3:15">
-      <c r="C63" s="5">
-        <v>62</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="3:15">
-      <c r="C64" s="5">
-        <v>63</v>
-      </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="3:15">
-      <c r="C65" s="5">
-        <v>64</v>
-      </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="3:15">
-      <c r="C66" s="5">
-        <v>65</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="3:15">
-      <c r="C67" s="5">
-        <v>66</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="3:15">
-      <c r="C68" s="5">
-        <v>67</v>
-      </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="3:15">
-      <c r="C69" s="5">
-        <v>68</v>
-      </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="3:15">
-      <c r="C70" s="5">
-        <v>69</v>
-      </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="3:15">
-      <c r="C71" s="5">
-        <v>70</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="3:15">
-      <c r="C72" s="5">
-        <v>71</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="3:15">
-      <c r="C73" s="5">
-        <v>72</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="3:15">
-      <c r="C74" s="5">
-        <v>73</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="3:15">
-      <c r="C75" s="5">
-        <v>74</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N75">
+  <conditionalFormatting sqref="N2:N21">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6345,16 +5303,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D8 D3:D4 D10:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D8 D3:D4 D10:D20">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -28233,12 +27191,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST575_ExecuteTrapAlarmForward.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST575_ExecuteTrapAlarmForward.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -4616,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4824,7 +4824,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
